--- a/22.03.25_RAP-MS-Tukey.xlsx
+++ b/22.03.25_RAP-MS-Tukey.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t>7SK</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Rpl7a</t>
   </si>
   <si>
+    <t>Gm3839;Gapdh</t>
+  </si>
+  <si>
     <t>Rbmxl1;Rbmx</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>Scaf11</t>
   </si>
   <si>
+    <t>4732456N10Rik</t>
+  </si>
+  <si>
     <t>Nolc1</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t>Ptbp1</t>
   </si>
   <si>
+    <t>Hspa5</t>
+  </si>
+  <si>
     <t>Cbx3;Cbx1</t>
   </si>
   <si>
@@ -244,6 +253,9 @@
     <t>Lsm3</t>
   </si>
   <si>
+    <t>Lsm6</t>
+  </si>
+  <si>
     <t>Snrpd1</t>
   </si>
   <si>
@@ -325,6 +337,9 @@
     <t>Ddx46</t>
   </si>
   <si>
+    <t>Thrap3</t>
+  </si>
+  <si>
     <t>Coil</t>
   </si>
   <si>
@@ -337,6 +352,9 @@
     <t>Hnrnpd</t>
   </si>
   <si>
+    <t>Khdrbs1</t>
+  </si>
+  <si>
     <t>Vdac2</t>
   </si>
   <si>
@@ -346,6 +364,9 @@
     <t>Vdac1</t>
   </si>
   <si>
+    <t>Arg1</t>
+  </si>
+  <si>
     <t>Ewsr1</t>
   </si>
   <si>
@@ -373,6 +394,9 @@
     <t>Snrpc</t>
   </si>
   <si>
+    <t>Trim28</t>
+  </si>
+  <si>
     <t>Snrnp70</t>
   </si>
   <si>
@@ -406,6 +430,9 @@
     <t>Syncrip</t>
   </si>
   <si>
+    <t>Mybbp1a</t>
+  </si>
+  <si>
     <t>Rpp38</t>
   </si>
   <si>
@@ -493,6 +520,9 @@
     <t>Mepce</t>
   </si>
   <si>
+    <t>Lin28a</t>
+  </si>
+  <si>
     <t>Sf3a1</t>
   </si>
   <si>
@@ -574,6 +604,9 @@
     <t>Sf3b3</t>
   </si>
   <si>
+    <t>Nop2</t>
+  </si>
+  <si>
     <t>Prpf3</t>
   </si>
   <si>
@@ -673,6 +706,9 @@
     <t>Nop56</t>
   </si>
   <si>
+    <t>U2af1</t>
+  </si>
+  <si>
     <t>Rpl4</t>
   </si>
   <si>
@@ -715,9 +751,15 @@
     <t>Zc3h8</t>
   </si>
   <si>
+    <t>Rpf2</t>
+  </si>
+  <si>
     <t>Ddx20</t>
   </si>
   <si>
+    <t>Ybx3</t>
+  </si>
+  <si>
     <t>Tgm1</t>
   </si>
   <si>
@@ -734,6 +776,9 @@
   </si>
   <si>
     <t>Slc7a5</t>
+  </si>
+  <si>
+    <t>Hnrnpdl</t>
   </si>
   <si>
     <t>Ik</t>
@@ -1100,7 +1145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H236"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1175,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-3.595065263759938</v>
+        <v>3.595065263759938</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1201,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-5.176672742076389</v>
+        <v>5.176672742076389</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1224,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-8.570029113686111</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1250,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>8.570029113686111</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1276,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-8.379516647289329</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1302,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>8.379516647289329</v>
       </c>
       <c r="F8">
-        <v>-5.794915449571957</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1348,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-6.431511775362144</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1357,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>5.794915449571957</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1383,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-2.557388562392193</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1400,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>6.431511775362144</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1409,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-8.687313401162815</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1435,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-8.972555020583696</v>
+        <v>2.557388562392193</v>
       </c>
       <c r="G13">
-        <v>-1.827993238322473</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1461,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-4.252419670688179</v>
+        <v>8.687313401162815</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1475,7 +1520,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>-5.072731426540884</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1487,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>8.972555020583696</v>
       </c>
       <c r="G15">
-        <v>-5.239843541738596</v>
+        <v>1.827993238322473</v>
       </c>
       <c r="H15">
-        <v>-4.689879974531293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1513,10 +1558,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>4.252419670688179</v>
       </c>
       <c r="G16">
-        <v>-3.176973711748311</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1527,7 +1572,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5.072731426540884</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1542,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>5.239843541738596</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>4.689879974531293</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1565,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-2.279688075192715</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3.176973711748311</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1591,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-2.460618572640147</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1617,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2.279688075192715</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>-1.856599913805235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1643,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.460618572640147</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1663,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>-10.09557523141792</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.856599913805235</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1715,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>10.09557523141792</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1877,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-5.949385814185479</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1903,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-3.051434633103425</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1929,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-3.641432900060802</v>
+        <v>5.949385814185479</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1955,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>3.051434633103425</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1981,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-4.072902656277576</v>
+        <v>3.641432900060802</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2033,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-4.641555490458481</v>
+        <v>4.072902656277576</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2059,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-2.580743289776607</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2082,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>-1.766271379784623</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>-9.960052675061554</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2111,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>4.641555490458481</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2137,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-1.417312531255504</v>
+        <v>2.580743289776607</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2157,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>-4.903486442560048</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1.766271379784623</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>9.960052675061554</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2192,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>-4.972472886772486</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2215,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-9.915669321751725</v>
+        <v>1.417312531255504</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2235,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>4.903486442560048</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-3.471947660401041</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2270,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>4.972472886772486</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2293,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-2.551556764718061</v>
+        <v>9.915669321751725</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2319,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-9.948030888700517</v>
+        <v>3.471947660401041</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2371,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2.551556764718061</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2397,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-2.278168413132595</v>
+        <v>9.948030888700517</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2423,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>-3.436478344518037</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2446,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>-5.284408106937819</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>-6.853691739872766</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2475,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2.278168413132595</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2501,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>3.436478344518037</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2524,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>-3.47359634777021</v>
+        <v>5.284408106937819</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>6.853691739872766</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2547,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>-2.553406477690098</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2579,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-5.032569247685741</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2602,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>3.47359634777021</v>
       </c>
       <c r="F58">
-        <v>-6.827851569933092</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2625,13 +2670,13 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>2.553406477690098</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-4.409311285121445</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2657,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-6.716348647614367</v>
+        <v>5.032569247685741</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2683,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-5.943927773798117</v>
+        <v>6.827851569933092</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2709,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>4.409311285121445</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2735,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>6.716348647614367</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2761,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-4.666242714481334</v>
+        <v>5.943927773798117</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2787,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-2.857743273243144</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2810,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>-2.728215794918917</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>-6.238331999269621</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2839,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-4.521819709949059</v>
+        <v>4.666242714481334</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2862,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>-7.176474485362576</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>-8.008721714672216</v>
+        <v>2.857743273243144</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2888,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>2.728215794918917</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>6.238331999269621</v>
       </c>
       <c r="G69">
-        <v>-1.896216464849797</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2917,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-5.540147125675081</v>
+        <v>4.521819709949059</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2940,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>-6.326284059855898</v>
+        <v>7.176474485362576</v>
       </c>
       <c r="F71">
-        <v>-11.91398743007693</v>
+        <v>8.008721714672216</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2966,13 +3011,13 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>-8.351538071387775</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>-11.22219799776587</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>-4.615663489117438</v>
+        <v>1.896216464849797</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2998,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>-1.49244926041755</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3021,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>5.540147125675081</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3044,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>6.326284059855898</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>11.91398743007693</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3070,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>8.351538071387775</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>11.22219799776587</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>4.615663489117438</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3102,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1.49244926041755</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3154,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>-2.457803251434071</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3229,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>-6.428304002211675</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3258,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>2.457803251434071</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3281,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-8.898681051903015</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3295,7 +3340,7 @@
         <v>91</v>
       </c>
       <c r="B85">
-        <v>-4.865221827366752</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3310,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>-3.294924097006964</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3333,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>6.428304002211675</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3385,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-1.992095968789691</v>
+        <v>8.898681051903015</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3399,7 +3444,7 @@
         <v>95</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>4.865221827366752</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3414,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>3.294924097006964</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3434,10 +3479,10 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>-5.61559335887429</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>-3.8401307718566</v>
+        <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3463,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-6.320287450843015</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3489,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-2.430431282397776</v>
+        <v>1.992095968789691</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3515,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>-5.675441825116333</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>-2.640427306090902</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3538,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>5.61559335887429</v>
       </c>
       <c r="F94">
-        <v>-3.721754525717415</v>
+        <v>3.8401307718566</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3567,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>6.320287450843015</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3593,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>-6.837117184257585</v>
+        <v>2.430431282397776</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3619,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>-6.728793019970872</v>
+        <v>5.675441825116333</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>2.640427306090902</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3642,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>-2.649899828338216</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>3.721754525717415</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3665,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>-2.52438517136218</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3697,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>-3.124128754265959</v>
+        <v>6.837117184257585</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3749,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>-3.866929160086465</v>
+        <v>6.728793019970872</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3772,10 +3817,10 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>2.649899828338216</v>
       </c>
       <c r="F103">
-        <v>-2.483726882074198</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3795,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>2.52438517136218</v>
       </c>
       <c r="E104">
-        <v>-5.372696854568921</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3827,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>3.124128754265959</v>
       </c>
       <c r="G105">
-        <v>-1.516128439142989</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3905,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>3.866929160086465</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3928,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>-2.763413727907395</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>2.483726882074198</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3954,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>-7.202573232028787</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3980,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>5.372696854568921</v>
       </c>
       <c r="F111">
-        <v>-6.794236292526016</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4006,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>-3.422414605292725</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1.516128439142989</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -4032,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>-4.768282879238839</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -4084,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>-1.953251311130523</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>-5.135046922531854</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4110,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>2.763413727907395</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>-3.037445980361698</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -4136,10 +4181,10 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>7.202573232028787</v>
       </c>
       <c r="F117">
-        <v>-4.517449440447378</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4165,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>-4.143974317615315</v>
+        <v>6.794236292526016</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4188,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>3.422414605292725</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -4240,13 +4285,13 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>4.768282879238839</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121">
-        <v>-2.78775022549046</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -4272,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>-3.352866036745815</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -4283,7 +4328,7 @@
         <v>129</v>
       </c>
       <c r="B123">
-        <v>-3.087280226304934</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -4292,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1.953251311130523</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>5.135046922531854</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4315,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>-5.018107796691041</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -4324,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>3.037445980361698</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -4347,10 +4392,10 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>-7.079042254061986</v>
+        <v>4.517449440447378</v>
       </c>
       <c r="G125">
-        <v>-3.693121624583179</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -4373,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>-15.65355977452702</v>
+        <v>4.143974317615315</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4425,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>-4.710532619345636</v>
+        <v>0</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4451,10 +4496,10 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>-8.607416656235722</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>-2.387332091019634</v>
+        <v>2.78775022549046</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -4477,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>-9.574467748968223</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>3.352866036745815</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -4491,7 +4536,7 @@
         <v>137</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>3.087280226304934</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -4506,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>-3.702283431896399</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -4535,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>-4.379324479654493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4549,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>5.018107796691041</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -4572,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>-10.01072640904151</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -4581,10 +4626,10 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>7.079042254061986</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>3.693121624583179</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -4604,10 +4649,10 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>-6.646281665707416</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>15.65355977452702</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4639,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>-1.607073488859044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4659,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>-2.460128002022094</v>
+        <v>4.710532619345636</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4685,10 +4730,10 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>-7.69583910687774</v>
+        <v>8.607416656235722</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>2.387332091019634</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -4708,10 +4753,10 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>-13.55664976151897</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>-14.31113709370482</v>
+        <v>9.574467748968223</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4740,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>3.702283431896399</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -4763,13 +4808,13 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>-3.65504753130076</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>4.379324479654493</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4789,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>-3.113359141763115</v>
+        <v>0</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -4806,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>10.01072640904151</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -4818,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="G143">
-        <v>-2.496413810456587</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -4838,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>6.646281665707416</v>
       </c>
       <c r="F144">
-        <v>-10.92220876805043</v>
+        <v>0</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -4867,13 +4912,13 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>-2.29827697933873</v>
+        <v>0</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1.607073488859044</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4893,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>2.460128002022094</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -4919,10 +4964,10 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>-6.81031581769584</v>
+        <v>7.69583910687774</v>
       </c>
       <c r="G147">
-        <v>-2.089314500897038</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -4942,10 +4987,10 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>13.55664976151897</v>
       </c>
       <c r="F148">
-        <v>-3.443086141117965</v>
+        <v>14.31113709370482</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -4971,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>-5.817840954587187</v>
+        <v>0</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -4991,13 +5036,13 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>-7.554824515654708</v>
+        <v>0</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>3.65504753130076</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -5023,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>-3.893773535496031</v>
+        <v>3.113359141763115</v>
       </c>
       <c r="G151">
-        <v>-7.267841047515895</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -5037,7 +5082,7 @@
         <v>158</v>
       </c>
       <c r="B152">
-        <v>-2.670898126354587</v>
+        <v>0</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -5052,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>2.496413810456587</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -5072,10 +5117,10 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>-6.167675917658258</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>10.92220876805043</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -5101,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>-9.297366688228804</v>
+        <v>2.29827697933873</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -5153,10 +5198,10 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>6.81031581769584</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>2.089314500897038</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -5173,13 +5218,13 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>-9.4273608424496</v>
+        <v>0</v>
       </c>
       <c r="E157">
         <v>0</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>3.443086141117965</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -5199,13 +5244,13 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>-2.60507370652636</v>
+        <v>0</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>5.817840954587187</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -5225,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>7.554824515654708</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -5257,10 +5302,10 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>-3.248669454492526</v>
+        <v>3.893773535496031</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>7.267841047515895</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -5271,7 +5316,7 @@
         <v>167</v>
       </c>
       <c r="B161">
-        <v>-2.678406347159103</v>
+        <v>2.670898126354587</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -5332,10 +5377,10 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>6.167675917658258</v>
       </c>
       <c r="F163">
-        <v>-2.33958950885084</v>
+        <v>0</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -5361,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>-2.130598564486978</v>
+        <v>9.297366688228804</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -5387,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>-6.431155138491842</v>
+        <v>0</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -5413,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>-3.522354166846812</v>
+        <v>0</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -5433,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>9.4273608424496</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -5453,13 +5498,13 @@
         <v>174</v>
       </c>
       <c r="B168">
-        <v>-2.090393810745876</v>
+        <v>0</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>2.60507370652636</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -5488,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>-2.690626202895571</v>
+        <v>0</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -5517,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>3.248669454492526</v>
       </c>
       <c r="G170">
-        <v>-4.748848193799062</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -5531,7 +5576,7 @@
         <v>177</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>2.678406347159103</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -5540,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>-1.880290969537211</v>
+        <v>0</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -5563,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>-3.677312554024813</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -5595,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>2.33958950885084</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -5621,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>2.130598564486978</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -5647,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>-8.698794568566898</v>
+        <v>6.431155138491842</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -5673,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>-2.6816185528159</v>
+        <v>3.522354166846812</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -5702,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>-2.688336660991383</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -5713,7 +5758,7 @@
         <v>184</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>2.090393810745876</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -5725,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>-2.336607966837524</v>
+        <v>0</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -5748,10 +5793,10 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>2.690626202895571</v>
       </c>
       <c r="F179">
-        <v>-8.231048848523486</v>
+        <v>0</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -5777,10 +5822,10 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>-2.430900678284771</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>-5.181054848343297</v>
+        <v>4.748848193799062</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -5800,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1.880290969537211</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -5823,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>3.677312554024813</v>
       </c>
       <c r="E182">
         <v>0</v>
       </c>
       <c r="F182">
-        <v>-4.977102676674989</v>
+        <v>0</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -5858,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="G183">
-        <v>-1.549020750675293</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -5881,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>-10.07489249102093</v>
+        <v>0</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -5907,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>-5.204982958213511</v>
+        <v>8.698794568566898</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -5921,7 +5966,7 @@
         <v>192</v>
       </c>
       <c r="B186">
-        <v>-3.460578346794893</v>
+        <v>0</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -5933,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>2.6816185528159</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -5953,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>-8.245861488168368</v>
+        <v>0</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -5962,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>2.688336660991383</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -5985,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>2.336607966837524</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -6011,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>-6.810325111894134</v>
+        <v>8.231048848523486</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -6037,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>-3.211129765121607</v>
+        <v>0</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -6063,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>-5.13425257762624</v>
+        <v>2.430900678284771</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>5.181054848343297</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -6089,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>-4.45784661223805</v>
+        <v>0</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -6115,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>4.977102676674989</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -6144,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="G194">
-        <v>-5.512079225617137</v>
+        <v>1.549020750675293</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -6167,10 +6212,10 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>10.07489249102093</v>
       </c>
       <c r="G195">
-        <v>-3.392131454491834</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -6193,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>-10.86372885110798</v>
+        <v>5.204982958213511</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -6207,7 +6252,7 @@
         <v>203</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>3.460578346794893</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -6219,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>-5.157602387044518</v>
+        <v>0</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -6239,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>-6.3114397842696</v>
+        <v>8.245861488168368</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -6271,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>-5.427705631948007</v>
+        <v>0</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -6297,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>-7.627877981184987</v>
+        <v>6.810325111894134</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -6323,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>3.211129765121607</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -6349,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>-4.748983284176163</v>
+        <v>5.13425257762624</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -6375,13 +6420,13 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>4.45784661223805</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>-1.799974616932018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6401,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>-3.039910488730619</v>
+        <v>0</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -6427,10 +6472,10 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>-7.578557305230875</v>
+        <v>0</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>5.512079225617137</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -6453,10 +6498,10 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>-3.488785191219933</v>
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>3.392131454491834</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -6479,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>10.86372885110798</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -6505,10 +6550,10 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>5.157602387044518</v>
       </c>
       <c r="G208">
-        <v>-6.823577876461162</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -6525,13 +6570,13 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>6.3114397842696</v>
       </c>
       <c r="E209">
         <v>0</v>
       </c>
       <c r="F209">
-        <v>-4.654095754770045</v>
+        <v>0</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -6557,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>-3.922320613508424</v>
+        <v>5.427705631948007</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -6583,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>-3.604016137168546</v>
+        <v>7.627877981184987</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -6609,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>-2.871564132299374</v>
+        <v>0</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -6635,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>4.748983284176163</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -6658,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>-3.676134354508633</v>
+        <v>0</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -6667,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1.799974616932018</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6687,10 +6732,10 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>3.039910488730619</v>
       </c>
       <c r="G215">
-        <v>-2.425751841310832</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -6713,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>7.578557305230875</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -6739,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>3.488785191219933</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -6765,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>-2.712226128311165</v>
+        <v>0</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -6791,10 +6836,10 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>-4.785962418805056</v>
+        <v>0</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>6.823577876461162</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -6817,10 +6862,10 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>4.654095754770045</v>
       </c>
       <c r="G220">
-        <v>-3.849954073278201</v>
+        <v>0</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -6837,13 +6882,13 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <v>-3.361212649635942</v>
+        <v>0</v>
       </c>
       <c r="E221">
         <v>0</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>3.922320613508424</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -6869,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>3.604016137168546</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -6895,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>-3.519815557376938</v>
+        <v>2.871564132299374</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -6921,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>-2.815227487117002</v>
+        <v>0</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -6970,10 +7015,10 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>3.676134354508633</v>
       </c>
       <c r="F226">
-        <v>-6.302559319845545</v>
+        <v>0</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -7002,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>2.425751841310832</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -7054,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="G229">
-        <v>-4.156984750200441</v>
+        <v>0</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -7074,10 +7119,10 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>-2.168848487895079</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>2.712226128311165</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -7103,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>4.785962418805056</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -7129,10 +7174,10 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>-8.950469207276193</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>0</v>
+        <v>3.849954073278201</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -7149,13 +7194,13 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>3.361212649635942</v>
       </c>
       <c r="E233">
         <v>0</v>
       </c>
       <c r="F233">
-        <v>-1.768782218912035</v>
+        <v>0</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -7181,10 +7226,10 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>-14.05149978319906</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>-9.618944952476193</v>
+        <v>0</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -7207,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>-3.087799261326826</v>
+        <v>3.519815557376938</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -7233,12 +7278,402 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>2.815227487117002</v>
       </c>
       <c r="G236">
         <v>0</v>
       </c>
       <c r="H236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>6.302559319845545</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>4.156984750200441</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>2.168848487895079</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>8.950469207276193</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>1.768782218912035</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>14.05149978319906</v>
+      </c>
+      <c r="G249">
+        <v>9.618944952476193</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>3.087799261326826</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
         <v>0</v>
       </c>
     </row>
